--- a/euro_2024_fixture.xlsx
+++ b/euro_2024_fixture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammedlutfiturkcan/hbbtv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7820643-3326-B944-87AF-0479017F629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C0E367-5722-9C41-97C9-DB162C00E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>TURKIYE</t>
   </si>
   <si>
-    <t>YUNANISTAN</t>
-  </si>
-  <si>
     <t>PORTEKIZ</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>match_stage_original</t>
+  </si>
+  <si>
+    <t>GURCISTAN</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -653,19 +653,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
@@ -679,13 +679,13 @@
         <v>45457.916666666664</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
@@ -714,13 +714,13 @@
         <v>45458.666666666664</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
@@ -749,13 +749,13 @@
         <v>45458.791666666664</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
@@ -784,13 +784,13 @@
         <v>45458.916666666664</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -819,13 +819,13 @@
         <v>45459.666666666664</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -854,13 +854,13 @@
         <v>45459.791666666664</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -889,13 +889,13 @@
         <v>45459.916666666664</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
@@ -924,13 +924,13 @@
         <v>45460.666666666664</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -959,13 +959,13 @@
         <v>45460.791666666664</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -994,13 +994,13 @@
         <v>45460.916666666664</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
@@ -1023,19 +1023,19 @@
         <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3">
         <v>45461.791666666664</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1047,30 +1047,30 @@
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="3">
         <v>45461.916666666664</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
@@ -1099,13 +1099,13 @@
         <v>45462.666666666664</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -1134,13 +1134,13 @@
         <v>45462.791666666664</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -1169,13 +1169,13 @@
         <v>45462.916666666664</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1">
@@ -1204,13 +1204,13 @@
         <v>45463.666666666664</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
@@ -1239,13 +1239,13 @@
         <v>45463.791666666664</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1">
@@ -1274,13 +1274,13 @@
         <v>45463.916666666664</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1">
@@ -1309,13 +1309,13 @@
         <v>45464.666666666664</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1">
@@ -1344,13 +1344,13 @@
         <v>45464.791666666664</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>8</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
@@ -1379,13 +1379,13 @@
         <v>45464.916666666664</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,30 +1397,30 @@
         <v>0</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="11">
         <v>45465.666666666664</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
@@ -1443,19 +1443,19 @@
         <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="11">
         <v>45465.791666666664</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1">
@@ -1484,13 +1484,13 @@
         <v>45465.916666666664</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1">
@@ -1519,13 +1519,13 @@
         <v>45466.916666666664</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <v>33</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1">
@@ -1554,13 +1554,13 @@
         <v>45466.916666666664</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1">
@@ -1589,13 +1589,13 @@
         <v>45467.916666666664</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>33</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1">
@@ -1624,13 +1624,13 @@
         <v>45467.916666666664</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>8</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1">
@@ -1659,13 +1659,13 @@
         <v>45468.791666666664</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>8</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1">
@@ -1694,13 +1694,13 @@
         <v>45468.791666666664</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>33</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1">
@@ -1729,13 +1729,13 @@
         <v>45468.916666666664</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>33</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" customHeight="1">
@@ -1764,13 +1764,13 @@
         <v>45468.916666666664</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" customHeight="1">
@@ -1799,13 +1799,13 @@
         <v>45469.791666666664</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" customHeight="1">
@@ -1834,13 +1834,13 @@
         <v>45469.791666666664</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>33</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1852,15 +1852,15 @@
         <v>0</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>26</v>
@@ -1869,13 +1869,13 @@
         <v>45469.916666666664</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1887,30 +1887,30 @@
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75" customHeight="1">
       <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D37" s="11">
         <v>45469.916666666664</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>33</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1">
@@ -1933,13 +1933,13 @@
         <v>45472.791666666664</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1953,13 +1953,13 @@
         <v>45472.916666666664</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39">
         <v>8</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>45473.791666666664</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1993,13 +1993,13 @@
         <v>45473.916666666664</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>8</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>45474.791666666664</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42">
         <v>8</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>45474.916666666664</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43">
         <v>8</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>45475.791666666664</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44">
         <v>8</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>45475.916666666664</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>45478.791666666664</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>45478.916666666664</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v>45479.791666666664</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F48">
         <v>8</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2153,13 +2153,13 @@
         <v>45479.916666666664</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2173,13 +2173,13 @@
         <v>45482.916666666664</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2193,13 +2193,13 @@
         <v>45483.916666666664</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F51">
         <v>8</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>45487.916666666664</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52">
         <v>8</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2248,13 +2248,13 @@
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="3">
         <v>45457.916666666664</v>
@@ -2276,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>45458.666666666664</v>
@@ -2290,10 +2290,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>45458.791666666664</v>
@@ -2304,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="5">
         <v>45458.916666666664</v>
@@ -2318,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>45459.666666666664</v>
@@ -2332,10 +2332,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="5">
         <v>45459.791666666664</v>
@@ -2346,10 +2346,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="3">
         <v>45459.916666666664</v>
@@ -2360,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5">
         <v>45460.666666666664</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>45460.791666666664</v>
@@ -2388,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D11" s="5">
         <v>45460.916666666664</v>
@@ -2402,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3">
         <v>45461.791666666664</v>
@@ -2416,10 +2416,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D13" s="5">
         <v>45461.916666666664</v>
